--- a/Day09~/Excel/output/output04.xlsx
+++ b/Day09~/Excel/output/output04.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="jan_13_output" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_jaunary_2013" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -481,8 +477,10 @@
       <c r="D2" t="n">
         <v>1200</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>41275</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2013/01/01</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -502,8 +500,10 @@
       <c r="D3" t="n">
         <v>1425</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>41280</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2013/01/06</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -523,8 +523,10 @@
       <c r="D4" t="n">
         <v>1390</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>41285</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2013/01/11</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -544,8 +546,10 @@
       <c r="D5" t="n">
         <v>1257</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>41292</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2013/01/18</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -565,8 +569,10 @@
       <c r="D6" t="n">
         <v>1725</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>41298</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2013/01/24</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -586,8 +592,10 @@
       <c r="D7" t="n">
         <v>1995</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>41305</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2013/01/31</t>
+        </is>
       </c>
     </row>
   </sheetData>
